--- a/PTS2022-data/2013_County-level_ASRH.xlsx
+++ b/PTS2022-data/2013_County-level_ASRH.xlsx
@@ -1,15 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/mary_ryan_yale_edu/Documents/Desktop/personal-code/pathwaysToScience-2022/PTS2022-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_659E6E535249EBFA943A541BFA7B080139D0CC29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C49DB6-3C46-45EA-B343-3D4FFCEAB847}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CT 2013 ASRH County" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -227,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1476,22 +1494,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1502,22 +1504,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1544,12 +1530,44 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1603,6 +1621,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1650,7 +1671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1683,9 +1704,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1718,6 +1756,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1893,11 +1948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="V139" sqref="V139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,32 +1969,32 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+    </row>
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1962,77 +2017,77 @@
       <c r="T2" s="5"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+    <row r="3" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="57" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="60" t="s">
+    <row r="4" spans="1:22" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52" t="s">
+      <c r="O4" s="53"/>
+      <c r="P4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52" t="s">
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="53" t="s">
+      <c r="S4" s="53"/>
+      <c r="T4" s="56" t="s">
         <v>35</v>
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
@@ -2063,7 +2118,7 @@
       <c r="J5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="14" t="s">
         <v>38</v>
       </c>
@@ -2088,13 +2143,13 @@
       <c r="S5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="54"/>
+      <c r="T5" s="57"/>
       <c r="U5" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2157,9 +2212,13 @@
       <c r="U6" s="22">
         <v>10415</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+      <c r="V6" s="5">
+        <f>SUM(U6:U24)</f>
+        <v>939904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
       <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2280,8 @@
         <v>44150</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
       <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
@@ -2284,8 +2343,8 @@
         <v>62485</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
       <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
@@ -2347,8 +2406,8 @@
         <v>66371</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
       <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
@@ -2410,8 +2469,8 @@
         <v>67123</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+    <row r="11" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
       <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
@@ -2473,8 +2532,8 @@
         <v>54183</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
@@ -2536,8 +2595,8 @@
         <v>53233</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
       <c r="B13" s="23" t="s">
         <v>9</v>
       </c>
@@ -2599,8 +2658,8 @@
         <v>56349</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
       <c r="B14" s="23" t="s">
         <v>10</v>
       </c>
@@ -2662,8 +2721,8 @@
         <v>57638</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
       <c r="B15" s="23" t="s">
         <v>11</v>
       </c>
@@ -2725,8 +2784,8 @@
         <v>66745</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
       <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
@@ -2788,8 +2847,8 @@
         <v>74529</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+    <row r="17" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
       <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
@@ -2851,8 +2910,8 @@
         <v>75246</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+    <row r="18" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
       <c r="B18" s="23" t="s">
         <v>14</v>
       </c>
@@ -2914,8 +2973,8 @@
         <v>66478</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+    <row r="19" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
       <c r="B19" s="23" t="s">
         <v>15</v>
       </c>
@@ -2977,8 +3036,8 @@
         <v>51275</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+    <row r="20" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
       <c r="B20" s="23" t="s">
         <v>16</v>
       </c>
@@ -3040,8 +3099,8 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+    <row r="21" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
       <c r="B21" s="23" t="s">
         <v>17</v>
       </c>
@@ -3103,8 +3162,8 @@
         <v>29973</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
       <c r="B22" s="23" t="s">
         <v>18</v>
       </c>
@@ -3166,8 +3225,8 @@
         <v>21828</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+    <row r="23" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
       <c r="B23" s="23" t="s">
         <v>19</v>
       </c>
@@ -3229,8 +3288,8 @@
         <v>18261</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+    <row r="24" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
       <c r="B24" s="23" t="s">
         <v>20</v>
       </c>
@@ -3292,8 +3351,8 @@
         <v>22278</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -3356,9 +3415,13 @@
       <c r="U25" s="29">
         <v>9618</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+      <c r="V25" s="5">
+        <f>SUM(U25:U43)</f>
+        <v>898272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
       <c r="B26" s="23" t="s">
         <v>3</v>
       </c>
@@ -3420,8 +3483,8 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+    <row r="27" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
       <c r="B27" s="23" t="s">
         <v>4</v>
       </c>
@@ -3483,8 +3546,8 @@
         <v>53738</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
       <c r="B28" s="23" t="s">
         <v>5</v>
       </c>
@@ -3546,8 +3609,8 @@
         <v>57750</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
       <c r="B29" s="23" t="s">
         <v>6</v>
       </c>
@@ -3609,8 +3672,8 @@
         <v>60725</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
       <c r="B30" s="23" t="s">
         <v>7</v>
       </c>
@@ -3672,8 +3735,8 @@
         <v>57284</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
       <c r="B31" s="23" t="s">
         <v>8</v>
       </c>
@@ -3735,8 +3798,8 @@
         <v>59019</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
+    <row r="32" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
       <c r="B32" s="23" t="s">
         <v>9</v>
       </c>
@@ -3798,8 +3861,8 @@
         <v>57471</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
+    <row r="33" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
       <c r="B33" s="23" t="s">
         <v>10</v>
       </c>
@@ -3861,8 +3924,8 @@
         <v>52595</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+    <row r="34" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
       <c r="B34" s="23" t="s">
         <v>11</v>
       </c>
@@ -3924,8 +3987,8 @@
         <v>58837</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
+    <row r="35" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
       <c r="B35" s="23" t="s">
         <v>12</v>
       </c>
@@ -3987,8 +4050,8 @@
         <v>65619</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
+    <row r="36" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
       <c r="B36" s="23" t="s">
         <v>13</v>
       </c>
@@ -4050,8 +4113,8 @@
         <v>69654</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
+    <row r="37" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
       <c r="B37" s="23" t="s">
         <v>14</v>
       </c>
@@ -4113,8 +4176,8 @@
         <v>65125</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
+    <row r="38" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
       <c r="B38" s="23" t="s">
         <v>15</v>
       </c>
@@ -4176,8 +4239,8 @@
         <v>52885</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
+    <row r="39" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
       <c r="B39" s="23" t="s">
         <v>16</v>
       </c>
@@ -4239,8 +4302,8 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
+    <row r="40" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
@@ -4302,8 +4365,8 @@
         <v>30124</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
+    <row r="41" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
       <c r="B41" s="23" t="s">
         <v>18</v>
       </c>
@@ -4365,8 +4428,8 @@
         <v>22773</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
+    <row r="42" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="45"/>
       <c r="B42" s="23" t="s">
         <v>19</v>
       </c>
@@ -4428,8 +4491,8 @@
         <v>19030</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+    <row r="43" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="46"/>
       <c r="B43" s="23" t="s">
         <v>20</v>
       </c>
@@ -4491,8 +4554,8 @@
         <v>23593</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
+    <row r="44" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -4555,9 +4618,13 @@
       <c r="U44" s="29">
         <v>1494</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="49"/>
+      <c r="V44" s="5">
+        <f>SUM(U44:U62)</f>
+        <v>186924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
       <c r="B45" s="23" t="s">
         <v>3</v>
       </c>
@@ -4619,8 +4686,8 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
+    <row r="46" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
       <c r="B46" s="23" t="s">
         <v>4</v>
       </c>
@@ -4682,8 +4749,8 @@
         <v>9966</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
       <c r="B47" s="23" t="s">
         <v>5</v>
       </c>
@@ -4745,8 +4812,8 @@
         <v>11673</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="49"/>
+    <row r="48" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
       <c r="B48" s="23" t="s">
         <v>6</v>
       </c>
@@ -4808,8 +4875,8 @@
         <v>11952</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+    <row r="49" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
       <c r="B49" s="23" t="s">
         <v>7</v>
       </c>
@@ -4871,8 +4938,8 @@
         <v>9408</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
+    <row r="50" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
       <c r="B50" s="23" t="s">
         <v>8</v>
       </c>
@@ -4934,8 +5001,8 @@
         <v>9028</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
+    <row r="51" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
       <c r="B51" s="23" t="s">
         <v>9</v>
       </c>
@@ -4997,8 +5064,8 @@
         <v>9189</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+    <row r="52" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
       <c r="B52" s="23" t="s">
         <v>10</v>
       </c>
@@ -5060,8 +5127,8 @@
         <v>9305</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
+    <row r="53" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
       <c r="B53" s="23" t="s">
         <v>11</v>
       </c>
@@ -5123,8 +5190,8 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
+    <row r="54" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
       <c r="B54" s="23" t="s">
         <v>12</v>
       </c>
@@ -5186,8 +5253,8 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
+    <row r="55" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
       <c r="B55" s="23" t="s">
         <v>13</v>
       </c>
@@ -5249,8 +5316,8 @@
         <v>16949</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="49"/>
+    <row r="56" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
       <c r="B56" s="23" t="s">
         <v>14</v>
       </c>
@@ -5312,8 +5379,8 @@
         <v>16617</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="49"/>
+    <row r="57" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
       <c r="B57" s="23" t="s">
         <v>15</v>
       </c>
@@ -5375,8 +5442,8 @@
         <v>13724</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="49"/>
+    <row r="58" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
       <c r="B58" s="23" t="s">
         <v>16</v>
       </c>
@@ -5438,8 +5505,8 @@
         <v>11042</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="49"/>
+    <row r="59" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
       <c r="B59" s="23" t="s">
         <v>17</v>
       </c>
@@ -5501,8 +5568,8 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="49"/>
+    <row r="60" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
       <c r="B60" s="23" t="s">
         <v>18</v>
       </c>
@@ -5564,8 +5631,8 @@
         <v>5259</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
+    <row r="61" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="45"/>
       <c r="B61" s="23" t="s">
         <v>19</v>
       </c>
@@ -5627,8 +5694,8 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+    <row r="62" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="46"/>
       <c r="B62" s="23" t="s">
         <v>20</v>
       </c>
@@ -5690,8 +5757,8 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="48" t="s">
+    <row r="63" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -5754,9 +5821,13 @@
       <c r="U63" s="29">
         <v>1446</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="49"/>
+      <c r="V63" s="5">
+        <f>SUM(U63:U81)</f>
+        <v>165562</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="45"/>
       <c r="B64" s="23" t="s">
         <v>3</v>
       </c>
@@ -5819,7 +5890,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="49"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="23" t="s">
         <v>4</v>
       </c>
@@ -5882,7 +5953,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="49"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="23" t="s">
         <v>5</v>
       </c>
@@ -5945,7 +6016,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="49"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="23" t="s">
         <v>6</v>
       </c>
@@ -6008,7 +6079,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="49"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="23" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6142,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="49"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="23" t="s">
         <v>8</v>
       </c>
@@ -6134,7 +6205,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="49"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="23" t="s">
         <v>9</v>
       </c>
@@ -6197,7 +6268,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="49"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="23" t="s">
         <v>10</v>
       </c>
@@ -6260,7 +6331,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="49"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="23" t="s">
         <v>11</v>
       </c>
@@ -6323,7 +6394,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="49"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="23" t="s">
         <v>12</v>
       </c>
@@ -6386,7 +6457,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="23" t="s">
         <v>13</v>
       </c>
@@ -6449,7 +6520,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="49"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="23" t="s">
         <v>14</v>
       </c>
@@ -6512,7 +6583,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="49"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="23" t="s">
         <v>15</v>
       </c>
@@ -6575,7 +6646,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="49"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="23" t="s">
         <v>16</v>
       </c>
@@ -6638,7 +6709,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="49"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="23" t="s">
         <v>17</v>
       </c>
@@ -6701,7 +6772,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="49"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="23" t="s">
         <v>18</v>
       </c>
@@ -6764,7 +6835,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="49"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="23" t="s">
         <v>19</v>
       </c>
@@ -6826,8 +6897,8 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+    <row r="81" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="46"/>
       <c r="B81" s="23" t="s">
         <v>20</v>
       </c>
@@ -6889,8 +6960,8 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="48" t="s">
+    <row r="82" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -6953,9 +7024,13 @@
       <c r="U82" s="29">
         <v>9200</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="49"/>
+      <c r="V82" s="5">
+        <f>SUM(U82:U100)</f>
+        <v>862287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="45"/>
       <c r="B83" s="23" t="s">
         <v>3</v>
       </c>
@@ -7017,8 +7092,8 @@
         <v>36782</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="49"/>
+    <row r="84" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="45"/>
       <c r="B84" s="23" t="s">
         <v>4</v>
       </c>
@@ -7080,8 +7155,8 @@
         <v>50297</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="49"/>
+    <row r="85" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="45"/>
       <c r="B85" s="23" t="s">
         <v>5</v>
       </c>
@@ -7143,8 +7218,8 @@
         <v>53630</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="49"/>
+    <row r="86" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="45"/>
       <c r="B86" s="23" t="s">
         <v>6</v>
       </c>
@@ -7206,8 +7281,8 @@
         <v>61082</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="49"/>
+    <row r="87" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="45"/>
       <c r="B87" s="23" t="s">
         <v>7</v>
       </c>
@@ -7269,8 +7344,8 @@
         <v>59576</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="49"/>
+    <row r="88" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="45"/>
       <c r="B88" s="23" t="s">
         <v>8</v>
       </c>
@@ -7332,8 +7407,8 @@
         <v>58259</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="49"/>
+    <row r="89" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="45"/>
       <c r="B89" s="23" t="s">
         <v>9</v>
       </c>
@@ -7395,8 +7470,8 @@
         <v>54396</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="49"/>
+    <row r="90" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="45"/>
       <c r="B90" s="23" t="s">
         <v>10</v>
       </c>
@@ -7458,8 +7533,8 @@
         <v>49525</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="49"/>
+    <row r="91" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="45"/>
       <c r="B91" s="23" t="s">
         <v>11</v>
       </c>
@@ -7521,8 +7596,8 @@
         <v>56502</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="49"/>
+    <row r="92" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="45"/>
       <c r="B92" s="23" t="s">
         <v>12</v>
       </c>
@@ -7584,8 +7659,8 @@
         <v>62058</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="49"/>
+    <row r="93" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="45"/>
       <c r="B93" s="23" t="s">
         <v>13</v>
       </c>
@@ -7647,8 +7722,8 @@
         <v>66190</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="49"/>
+    <row r="94" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="45"/>
       <c r="B94" s="23" t="s">
         <v>14</v>
       </c>
@@ -7710,8 +7785,8 @@
         <v>61896</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="49"/>
+    <row r="95" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="45"/>
       <c r="B95" s="23" t="s">
         <v>15</v>
       </c>
@@ -7773,8 +7848,8 @@
         <v>50863</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="49"/>
+    <row r="96" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="45"/>
       <c r="B96" s="23" t="s">
         <v>16</v>
       </c>
@@ -7836,8 +7911,8 @@
         <v>41349</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="49"/>
+    <row r="97" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="45"/>
       <c r="B97" s="23" t="s">
         <v>17</v>
       </c>
@@ -7899,8 +7974,8 @@
         <v>29296</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="49"/>
+    <row r="98" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="45"/>
       <c r="B98" s="23" t="s">
         <v>18</v>
       </c>
@@ -7962,8 +8037,8 @@
         <v>21006</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="49"/>
+    <row r="99" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="45"/>
       <c r="B99" s="23" t="s">
         <v>19</v>
       </c>
@@ -8025,8 +8100,8 @@
         <v>17831</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="50"/>
+    <row r="100" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="46"/>
       <c r="B100" s="23" t="s">
         <v>20</v>
       </c>
@@ -8088,8 +8163,8 @@
         <v>22549</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="48" t="s">
+    <row r="101" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="23" t="s">
@@ -8152,9 +8227,13 @@
       <c r="U101" s="29">
         <v>2879</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="49"/>
+      <c r="V101" s="5">
+        <f>SUM(U101:U119)</f>
+        <v>274150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="45"/>
       <c r="B102" s="23" t="s">
         <v>3</v>
       </c>
@@ -8216,8 +8295,8 @@
         <v>11252</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="49"/>
+    <row r="103" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="45"/>
       <c r="B103" s="23" t="s">
         <v>4</v>
       </c>
@@ -8279,8 +8358,8 @@
         <v>15387</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="49"/>
+    <row r="104" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="45"/>
       <c r="B104" s="23" t="s">
         <v>5</v>
       </c>
@@ -8342,8 +8421,8 @@
         <v>16536</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="49"/>
+    <row r="105" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="45"/>
       <c r="B105" s="23" t="s">
         <v>6</v>
       </c>
@@ -8405,8 +8484,8 @@
         <v>18435</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="49"/>
+    <row r="106" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="45"/>
       <c r="B106" s="23" t="s">
         <v>7</v>
       </c>
@@ -8468,8 +8547,8 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="49"/>
+    <row r="107" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="45"/>
       <c r="B107" s="23" t="s">
         <v>8</v>
       </c>
@@ -8531,8 +8610,8 @@
         <v>18183</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="49"/>
+    <row r="108" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="45"/>
       <c r="B108" s="23" t="s">
         <v>9</v>
       </c>
@@ -8594,8 +8673,8 @@
         <v>16357</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="49"/>
+    <row r="109" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="45"/>
       <c r="B109" s="23" t="s">
         <v>10</v>
       </c>
@@ -8657,8 +8736,8 @@
         <v>15011</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="49"/>
+    <row r="110" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="45"/>
       <c r="B110" s="23" t="s">
         <v>11</v>
       </c>
@@ -8720,8 +8799,8 @@
         <v>17410</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="49"/>
+    <row r="111" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="45"/>
       <c r="B111" s="23" t="s">
         <v>12</v>
       </c>
@@ -8783,8 +8862,8 @@
         <v>20079</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="49"/>
+    <row r="112" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="45"/>
       <c r="B112" s="23" t="s">
         <v>13</v>
       </c>
@@ -8846,8 +8925,8 @@
         <v>21843</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="49"/>
+    <row r="113" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="45"/>
       <c r="B113" s="23" t="s">
         <v>14</v>
       </c>
@@ -8909,8 +8988,8 @@
         <v>20690</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="49"/>
+    <row r="114" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="45"/>
       <c r="B114" s="23" t="s">
         <v>15</v>
       </c>
@@ -8972,8 +9051,8 @@
         <v>16919</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="49"/>
+    <row r="115" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="45"/>
       <c r="B115" s="23" t="s">
         <v>16</v>
       </c>
@@ -9035,8 +9114,8 @@
         <v>13854</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="49"/>
+    <row r="116" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="45"/>
       <c r="B116" s="23" t="s">
         <v>17</v>
       </c>
@@ -9098,8 +9177,8 @@
         <v>9928</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="49"/>
+    <row r="117" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="45"/>
       <c r="B117" s="23" t="s">
         <v>18</v>
       </c>
@@ -9161,8 +9240,8 @@
         <v>6951</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="49"/>
+    <row r="118" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="45"/>
       <c r="B118" s="23" t="s">
         <v>19</v>
       </c>
@@ -9224,8 +9303,8 @@
         <v>5579</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="50"/>
+    <row r="119" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="46"/>
       <c r="B119" s="23" t="s">
         <v>20</v>
       </c>
@@ -9287,8 +9366,8 @@
         <v>6327</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="48" t="s">
+    <row r="120" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="44" t="s">
         <v>26</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -9351,9 +9430,13 @@
       <c r="U120" s="29">
         <v>1175</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="49"/>
+      <c r="V120" s="5">
+        <f>SUM(U120:U138)</f>
+        <v>151377</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="45"/>
       <c r="B121" s="23" t="s">
         <v>3</v>
       </c>
@@ -9415,8 +9498,8 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="49"/>
+    <row r="122" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="45"/>
       <c r="B122" s="23" t="s">
         <v>4</v>
       </c>
@@ -9478,8 +9561,8 @@
         <v>7762</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="49"/>
+    <row r="123" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="45"/>
       <c r="B123" s="23" t="s">
         <v>5</v>
       </c>
@@ -9541,8 +9624,8 @@
         <v>8980</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="49"/>
+    <row r="124" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="45"/>
       <c r="B124" s="23" t="s">
         <v>6</v>
       </c>
@@ -9604,8 +9687,8 @@
         <v>14934</v>
       </c>
     </row>
-    <row r="125" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="49"/>
+    <row r="125" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="45"/>
       <c r="B125" s="23" t="s">
         <v>7</v>
       </c>
@@ -9667,8 +9750,8 @@
         <v>17704</v>
       </c>
     </row>
-    <row r="126" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="49"/>
+    <row r="126" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="45"/>
       <c r="B126" s="23" t="s">
         <v>8</v>
       </c>
@@ -9730,8 +9813,8 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="127" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="49"/>
+    <row r="127" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="45"/>
       <c r="B127" s="23" t="s">
         <v>9</v>
       </c>
@@ -9793,8 +9876,8 @@
         <v>7668</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="49"/>
+    <row r="128" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="45"/>
       <c r="B128" s="23" t="s">
         <v>10</v>
       </c>
@@ -9856,8 +9939,8 @@
         <v>7342</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="49"/>
+    <row r="129" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="45"/>
       <c r="B129" s="23" t="s">
         <v>11</v>
       </c>
@@ -9919,8 +10002,8 @@
         <v>9489</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="49"/>
+    <row r="130" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="45"/>
       <c r="B130" s="23" t="s">
         <v>12</v>
       </c>
@@ -9982,8 +10065,8 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="49"/>
+    <row r="131" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="45"/>
       <c r="B131" s="23" t="s">
         <v>13</v>
       </c>
@@ -10045,8 +10128,8 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="49"/>
+    <row r="132" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="45"/>
       <c r="B132" s="23" t="s">
         <v>14</v>
       </c>
@@ -10108,8 +10191,8 @@
         <v>11251</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="49"/>
+    <row r="133" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="45"/>
       <c r="B133" s="23" t="s">
         <v>15</v>
       </c>
@@ -10171,8 +10254,8 @@
         <v>8663</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="49"/>
+    <row r="134" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="45"/>
       <c r="B134" s="23" t="s">
         <v>16</v>
       </c>
@@ -10234,8 +10317,8 @@
         <v>6964</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="49"/>
+    <row r="135" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="45"/>
       <c r="B135" s="23" t="s">
         <v>17</v>
       </c>
@@ -10297,8 +10380,8 @@
         <v>4981</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="49"/>
+    <row r="136" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="45"/>
       <c r="B136" s="23" t="s">
         <v>18</v>
       </c>
@@ -10360,8 +10443,8 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="49"/>
+    <row r="137" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="45"/>
       <c r="B137" s="23" t="s">
         <v>19</v>
       </c>
@@ -10423,8 +10506,8 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="50"/>
+    <row r="138" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="46"/>
       <c r="B138" s="23" t="s">
         <v>20</v>
       </c>
@@ -10486,8 +10569,8 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="48" t="s">
+    <row r="139" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B139" s="23" t="s">
@@ -10550,9 +10633,13 @@
       <c r="U139" s="29">
         <v>1168</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="49"/>
+      <c r="V139" s="5">
+        <f>SUM(U139:U157)</f>
+        <v>117604</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="45"/>
       <c r="B140" s="23" t="s">
         <v>3</v>
       </c>
@@ -10614,8 +10701,8 @@
         <v>4899</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="49"/>
+    <row r="141" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="45"/>
       <c r="B141" s="23" t="s">
         <v>4</v>
       </c>
@@ -10677,8 +10764,8 @@
         <v>6759</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="49"/>
+    <row r="142" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="45"/>
       <c r="B142" s="23" t="s">
         <v>5</v>
       </c>
@@ -10740,8 +10827,8 @@
         <v>7283</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="49"/>
+    <row r="143" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="45"/>
       <c r="B143" s="23" t="s">
         <v>6</v>
       </c>
@@ -10803,8 +10890,8 @@
         <v>8559</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="49"/>
+    <row r="144" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="45"/>
       <c r="B144" s="23" t="s">
         <v>7</v>
       </c>
@@ -10867,7 +10954,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="49"/>
+      <c r="A145" s="45"/>
       <c r="B145" s="23" t="s">
         <v>8</v>
       </c>
@@ -10930,7 +11017,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="49"/>
+      <c r="A146" s="45"/>
       <c r="B146" s="23" t="s">
         <v>9</v>
       </c>
@@ -10993,7 +11080,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="49"/>
+      <c r="A147" s="45"/>
       <c r="B147" s="23" t="s">
         <v>10</v>
       </c>
@@ -11056,7 +11143,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="49"/>
+      <c r="A148" s="45"/>
       <c r="B148" s="23" t="s">
         <v>11</v>
       </c>
@@ -11119,7 +11206,7 @@
       </c>
     </row>
     <row r="149" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="49"/>
+      <c r="A149" s="45"/>
       <c r="B149" s="23" t="s">
         <v>12</v>
       </c>
@@ -11182,7 +11269,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="49"/>
+      <c r="A150" s="45"/>
       <c r="B150" s="23" t="s">
         <v>13</v>
       </c>
@@ -11245,7 +11332,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="49"/>
+      <c r="A151" s="45"/>
       <c r="B151" s="23" t="s">
         <v>14</v>
       </c>
@@ -11308,7 +11395,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="49"/>
+      <c r="A152" s="45"/>
       <c r="B152" s="23" t="s">
         <v>15</v>
       </c>
@@ -11371,7 +11458,7 @@
       </c>
     </row>
     <row r="153" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="49"/>
+      <c r="A153" s="45"/>
       <c r="B153" s="23" t="s">
         <v>16</v>
       </c>
@@ -11434,7 +11521,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="49"/>
+      <c r="A154" s="45"/>
       <c r="B154" s="23" t="s">
         <v>17</v>
       </c>
@@ -11497,7 +11584,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="49"/>
+      <c r="A155" s="45"/>
       <c r="B155" s="23" t="s">
         <v>18</v>
       </c>
@@ -11560,7 +11647,7 @@
       </c>
     </row>
     <row r="156" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="49"/>
+      <c r="A156" s="45"/>
       <c r="B156" s="23" t="s">
         <v>19</v>
       </c>
@@ -11623,7 +11710,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="30" t="s">
         <v>20</v>
       </c>
@@ -11686,10 +11773,10 @@
       </c>
     </row>
     <row r="158" spans="1:21" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="44" t="s">
+      <c r="A158" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="45"/>
+      <c r="B158" s="59"/>
       <c r="C158" s="37">
         <v>1231649</v>
       </c>
@@ -11749,233 +11836,243 @@
       </c>
     </row>
     <row r="160" spans="1:21" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="46" t="s">
+      <c r="A160" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B160" s="46"/>
-      <c r="C160" s="46"/>
-      <c r="D160" s="46"/>
-      <c r="E160" s="46"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="46"/>
-      <c r="H160" s="46"/>
-      <c r="I160" s="46"/>
-      <c r="J160" s="46"/>
-      <c r="K160" s="46"/>
-      <c r="L160" s="46"/>
-      <c r="M160" s="46"/>
-      <c r="N160" s="46"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="46"/>
-      <c r="Q160" s="46"/>
-      <c r="R160" s="46"/>
-      <c r="S160" s="46"/>
-      <c r="T160" s="46"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="60"/>
+      <c r="G160" s="60"/>
+      <c r="H160" s="60"/>
+      <c r="I160" s="60"/>
+      <c r="J160" s="60"/>
+      <c r="K160" s="60"/>
+      <c r="L160" s="60"/>
+      <c r="M160" s="60"/>
+      <c r="N160" s="60"/>
+      <c r="O160" s="60"/>
+      <c r="P160" s="60"/>
+      <c r="Q160" s="60"/>
+      <c r="R160" s="60"/>
+      <c r="S160" s="60"/>
+      <c r="T160" s="60"/>
     </row>
     <row r="161" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="46"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="46"/>
-      <c r="E161" s="46"/>
-      <c r="F161" s="46"/>
-      <c r="G161" s="46"/>
-      <c r="H161" s="46"/>
-      <c r="I161" s="46"/>
-      <c r="J161" s="46"/>
-      <c r="K161" s="46"/>
-      <c r="L161" s="46"/>
-      <c r="M161" s="46"/>
-      <c r="N161" s="46"/>
-      <c r="O161" s="46"/>
-      <c r="P161" s="46"/>
-      <c r="Q161" s="46"/>
-      <c r="R161" s="46"/>
-      <c r="S161" s="46"/>
-      <c r="T161" s="46"/>
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="60"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
+      <c r="I161" s="60"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
+      <c r="L161" s="60"/>
+      <c r="M161" s="60"/>
+      <c r="N161" s="60"/>
+      <c r="O161" s="60"/>
+      <c r="P161" s="60"/>
+      <c r="Q161" s="60"/>
+      <c r="R161" s="60"/>
+      <c r="S161" s="60"/>
+      <c r="T161" s="60"/>
     </row>
     <row r="162" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="46"/>
-      <c r="B162" s="46"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="46"/>
-      <c r="E162" s="46"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="46"/>
-      <c r="H162" s="46"/>
-      <c r="I162" s="46"/>
-      <c r="J162" s="46"/>
-      <c r="K162" s="46"/>
-      <c r="L162" s="46"/>
-      <c r="M162" s="46"/>
-      <c r="N162" s="46"/>
-      <c r="O162" s="46"/>
-      <c r="P162" s="46"/>
-      <c r="Q162" s="46"/>
-      <c r="R162" s="46"/>
-      <c r="S162" s="46"/>
-      <c r="T162" s="46"/>
+      <c r="A162" s="60"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
+      <c r="I162" s="60"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
+      <c r="L162" s="60"/>
+      <c r="M162" s="60"/>
+      <c r="N162" s="60"/>
+      <c r="O162" s="60"/>
+      <c r="P162" s="60"/>
+      <c r="Q162" s="60"/>
+      <c r="R162" s="60"/>
+      <c r="S162" s="60"/>
+      <c r="T162" s="60"/>
     </row>
     <row r="163" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="46"/>
-      <c r="B163" s="46"/>
-      <c r="C163" s="46"/>
-      <c r="D163" s="46"/>
-      <c r="E163" s="46"/>
-      <c r="F163" s="46"/>
-      <c r="G163" s="46"/>
-      <c r="H163" s="46"/>
-      <c r="I163" s="46"/>
-      <c r="J163" s="46"/>
-      <c r="K163" s="46"/>
-      <c r="L163" s="46"/>
-      <c r="M163" s="46"/>
-      <c r="N163" s="46"/>
-      <c r="O163" s="46"/>
-      <c r="P163" s="46"/>
-      <c r="Q163" s="46"/>
-      <c r="R163" s="46"/>
-      <c r="S163" s="46"/>
-      <c r="T163" s="46"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="60"/>
+      <c r="G163" s="60"/>
+      <c r="H163" s="60"/>
+      <c r="I163" s="60"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
+      <c r="L163" s="60"/>
+      <c r="M163" s="60"/>
+      <c r="N163" s="60"/>
+      <c r="O163" s="60"/>
+      <c r="P163" s="60"/>
+      <c r="Q163" s="60"/>
+      <c r="R163" s="60"/>
+      <c r="S163" s="60"/>
+      <c r="T163" s="60"/>
     </row>
     <row r="164" spans="1:20" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="47" t="s">
+      <c r="A164" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B164" s="47"/>
-      <c r="C164" s="47"/>
-      <c r="D164" s="47"/>
-      <c r="E164" s="47"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="47"/>
-      <c r="I164" s="47"/>
-      <c r="J164" s="47"/>
-      <c r="K164" s="47"/>
-      <c r="L164" s="47"/>
-      <c r="M164" s="47"/>
-      <c r="N164" s="47"/>
-      <c r="O164" s="47"/>
-      <c r="P164" s="47"/>
-      <c r="Q164" s="47"/>
-      <c r="R164" s="47"/>
-      <c r="S164" s="47"/>
-      <c r="T164" s="47"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="61"/>
+      <c r="D164" s="61"/>
+      <c r="E164" s="61"/>
+      <c r="F164" s="61"/>
+      <c r="G164" s="61"/>
+      <c r="H164" s="61"/>
+      <c r="I164" s="61"/>
+      <c r="J164" s="61"/>
+      <c r="K164" s="61"/>
+      <c r="L164" s="61"/>
+      <c r="M164" s="61"/>
+      <c r="N164" s="61"/>
+      <c r="O164" s="61"/>
+      <c r="P164" s="61"/>
+      <c r="Q164" s="61"/>
+      <c r="R164" s="61"/>
+      <c r="S164" s="61"/>
+      <c r="T164" s="61"/>
     </row>
     <row r="165" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
-      <c r="B165" s="47"/>
-      <c r="C165" s="47"/>
-      <c r="D165" s="47"/>
-      <c r="E165" s="47"/>
-      <c r="F165" s="47"/>
-      <c r="G165" s="47"/>
-      <c r="H165" s="47"/>
-      <c r="I165" s="47"/>
-      <c r="J165" s="47"/>
-      <c r="K165" s="47"/>
-      <c r="L165" s="47"/>
-      <c r="M165" s="47"/>
-      <c r="N165" s="47"/>
-      <c r="O165" s="47"/>
-      <c r="P165" s="47"/>
-      <c r="Q165" s="47"/>
-      <c r="R165" s="47"/>
-      <c r="S165" s="47"/>
-      <c r="T165" s="47"/>
+      <c r="A165" s="61"/>
+      <c r="B165" s="61"/>
+      <c r="C165" s="61"/>
+      <c r="D165" s="61"/>
+      <c r="E165" s="61"/>
+      <c r="F165" s="61"/>
+      <c r="G165" s="61"/>
+      <c r="H165" s="61"/>
+      <c r="I165" s="61"/>
+      <c r="J165" s="61"/>
+      <c r="K165" s="61"/>
+      <c r="L165" s="61"/>
+      <c r="M165" s="61"/>
+      <c r="N165" s="61"/>
+      <c r="O165" s="61"/>
+      <c r="P165" s="61"/>
+      <c r="Q165" s="61"/>
+      <c r="R165" s="61"/>
+      <c r="S165" s="61"/>
+      <c r="T165" s="61"/>
     </row>
     <row r="166" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
-      <c r="B166" s="47"/>
-      <c r="C166" s="47"/>
-      <c r="D166" s="47"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="47"/>
-      <c r="I166" s="47"/>
-      <c r="J166" s="47"/>
-      <c r="K166" s="47"/>
-      <c r="L166" s="47"/>
-      <c r="M166" s="47"/>
-      <c r="N166" s="47"/>
-      <c r="O166" s="47"/>
-      <c r="P166" s="47"/>
-      <c r="Q166" s="47"/>
-      <c r="R166" s="47"/>
-      <c r="S166" s="47"/>
-      <c r="T166" s="47"/>
+      <c r="A166" s="61"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="61"/>
+      <c r="D166" s="61"/>
+      <c r="E166" s="61"/>
+      <c r="F166" s="61"/>
+      <c r="G166" s="61"/>
+      <c r="H166" s="61"/>
+      <c r="I166" s="61"/>
+      <c r="J166" s="61"/>
+      <c r="K166" s="61"/>
+      <c r="L166" s="61"/>
+      <c r="M166" s="61"/>
+      <c r="N166" s="61"/>
+      <c r="O166" s="61"/>
+      <c r="P166" s="61"/>
+      <c r="Q166" s="61"/>
+      <c r="R166" s="61"/>
+      <c r="S166" s="61"/>
+      <c r="T166" s="61"/>
     </row>
     <row r="167" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
-      <c r="B167" s="47"/>
-      <c r="C167" s="47"/>
-      <c r="D167" s="47"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="47"/>
-      <c r="I167" s="47"/>
-      <c r="J167" s="47"/>
-      <c r="K167" s="47"/>
-      <c r="L167" s="47"/>
-      <c r="M167" s="47"/>
-      <c r="N167" s="47"/>
-      <c r="O167" s="47"/>
-      <c r="P167" s="47"/>
-      <c r="Q167" s="47"/>
-      <c r="R167" s="47"/>
-      <c r="S167" s="47"/>
-      <c r="T167" s="47"/>
+      <c r="A167" s="61"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="61"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="61"/>
+      <c r="L167" s="61"/>
+      <c r="M167" s="61"/>
+      <c r="N167" s="61"/>
+      <c r="O167" s="61"/>
+      <c r="P167" s="61"/>
+      <c r="Q167" s="61"/>
+      <c r="R167" s="61"/>
+      <c r="S167" s="61"/>
+      <c r="T167" s="61"/>
     </row>
     <row r="168" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="47" t="s">
+      <c r="A168" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B168" s="47"/>
-      <c r="C168" s="47"/>
-      <c r="D168" s="47"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="47"/>
-      <c r="I168" s="47"/>
-      <c r="J168" s="47"/>
-      <c r="K168" s="47"/>
-      <c r="L168" s="47"/>
-      <c r="M168" s="47"/>
-      <c r="N168" s="47"/>
-      <c r="O168" s="47"/>
-      <c r="P168" s="47"/>
-      <c r="Q168" s="47"/>
-      <c r="R168" s="47"/>
-      <c r="S168" s="47"/>
-      <c r="T168" s="47"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="61"/>
+      <c r="D168" s="61"/>
+      <c r="E168" s="61"/>
+      <c r="F168" s="61"/>
+      <c r="G168" s="61"/>
+      <c r="H168" s="61"/>
+      <c r="I168" s="61"/>
+      <c r="J168" s="61"/>
+      <c r="K168" s="61"/>
+      <c r="L168" s="61"/>
+      <c r="M168" s="61"/>
+      <c r="N168" s="61"/>
+      <c r="O168" s="61"/>
+      <c r="P168" s="61"/>
+      <c r="Q168" s="61"/>
+      <c r="R168" s="61"/>
+      <c r="S168" s="61"/>
+      <c r="T168" s="61"/>
     </row>
     <row r="169" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
-      <c r="B169" s="47"/>
-      <c r="C169" s="47"/>
-      <c r="D169" s="47"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="47"/>
-      <c r="I169" s="47"/>
-      <c r="J169" s="47"/>
-      <c r="K169" s="47"/>
-      <c r="L169" s="47"/>
-      <c r="M169" s="47"/>
-      <c r="N169" s="47"/>
-      <c r="O169" s="47"/>
-      <c r="P169" s="47"/>
-      <c r="Q169" s="47"/>
-      <c r="R169" s="47"/>
-      <c r="S169" s="47"/>
-      <c r="T169" s="47"/>
+      <c r="A169" s="61"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="61"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="61"/>
+      <c r="G169" s="61"/>
+      <c r="H169" s="61"/>
+      <c r="I169" s="61"/>
+      <c r="J169" s="61"/>
+      <c r="K169" s="61"/>
+      <c r="L169" s="61"/>
+      <c r="M169" s="61"/>
+      <c r="N169" s="61"/>
+      <c r="O169" s="61"/>
+      <c r="P169" s="61"/>
+      <c r="Q169" s="61"/>
+      <c r="R169" s="61"/>
+      <c r="S169" s="61"/>
+      <c r="T169" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A160:T163"/>
+    <mergeCell ref="A164:T167"/>
+    <mergeCell ref="A168:T169"/>
+    <mergeCell ref="A44:A62"/>
+    <mergeCell ref="A63:A81"/>
+    <mergeCell ref="A82:A100"/>
+    <mergeCell ref="A101:A119"/>
+    <mergeCell ref="A120:A138"/>
+    <mergeCell ref="A139:A157"/>
     <mergeCell ref="A25:A43"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A3:B4"/>
@@ -11992,16 +12089,6 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="A6:A24"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A160:T163"/>
-    <mergeCell ref="A164:T167"/>
-    <mergeCell ref="A168:T169"/>
-    <mergeCell ref="A44:A62"/>
-    <mergeCell ref="A63:A81"/>
-    <mergeCell ref="A82:A100"/>
-    <mergeCell ref="A101:A119"/>
-    <mergeCell ref="A120:A138"/>
-    <mergeCell ref="A139:A157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
